--- a/Uploads/ETC-USD_1y.xlsx
+++ b/Uploads/ETC-USD_1y.xlsx
@@ -456,4017 +456,4017 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45461</v>
+        <v>45466</v>
       </c>
       <c r="B2" t="n">
-        <v>23.05</v>
+        <v>22.65</v>
       </c>
       <c r="C2" t="n">
-        <v>191779.09390442</v>
+        <v>28594.11111072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45462</v>
+        <v>45467</v>
       </c>
       <c r="B3" t="n">
-        <v>23.98</v>
+        <v>22.97</v>
       </c>
       <c r="C3" t="n">
-        <v>77079.66213493999</v>
+        <v>97126.61358352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45463</v>
+        <v>45468</v>
       </c>
       <c r="B4" t="n">
-        <v>24.04</v>
+        <v>23.49</v>
       </c>
       <c r="C4" t="n">
-        <v>67885.3077676</v>
+        <v>46157.55161444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45464</v>
+        <v>45469</v>
       </c>
       <c r="B5" t="n">
-        <v>23.53</v>
+        <v>23.66</v>
       </c>
       <c r="C5" t="n">
-        <v>41740.01523519</v>
+        <v>39056.63479514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45465</v>
+        <v>45470</v>
       </c>
       <c r="B6" t="n">
-        <v>23.37</v>
+        <v>24.03</v>
       </c>
       <c r="C6" t="n">
-        <v>14273.754876</v>
+        <v>43273.1382508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45466</v>
+        <v>45471</v>
       </c>
       <c r="B7" t="n">
-        <v>22.65</v>
+        <v>23.35</v>
       </c>
       <c r="C7" t="n">
-        <v>28594.11111072</v>
+        <v>34219.00028579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45467</v>
+        <v>45472</v>
       </c>
       <c r="B8" t="n">
-        <v>22.97</v>
+        <v>23.11</v>
       </c>
       <c r="C8" t="n">
-        <v>97126.61358352</v>
+        <v>10574.32001489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45468</v>
+        <v>45473</v>
       </c>
       <c r="B9" t="n">
-        <v>23.49</v>
+        <v>23.66</v>
       </c>
       <c r="C9" t="n">
-        <v>46157.55161444</v>
+        <v>23422.70139211</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="B10" t="n">
-        <v>23.66</v>
+        <v>23.22</v>
       </c>
       <c r="C10" t="n">
-        <v>39056.63479514</v>
+        <v>70221.78827454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45470</v>
+        <v>45475</v>
       </c>
       <c r="B11" t="n">
-        <v>24.03</v>
+        <v>23.26</v>
       </c>
       <c r="C11" t="n">
-        <v>43273.1382508</v>
+        <v>30062.67219994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45471</v>
+        <v>45476</v>
       </c>
       <c r="B12" t="n">
-        <v>23.35</v>
+        <v>22.57</v>
       </c>
       <c r="C12" t="n">
-        <v>34219.00028579</v>
+        <v>55936.61804204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45472</v>
+        <v>45477</v>
       </c>
       <c r="B13" t="n">
-        <v>23.11</v>
+        <v>20.76</v>
       </c>
       <c r="C13" t="n">
-        <v>10574.32001489</v>
+        <v>106205.15133907</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45473</v>
+        <v>45478</v>
       </c>
       <c r="B14" t="n">
-        <v>23.66</v>
+        <v>20.25</v>
       </c>
       <c r="C14" t="n">
-        <v>23422.70139211</v>
+        <v>256792.37162603</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45479</v>
       </c>
       <c r="B15" t="n">
-        <v>23.22</v>
+        <v>21.19</v>
       </c>
       <c r="C15" t="n">
-        <v>70221.78827454</v>
+        <v>52027.65205152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45475</v>
+        <v>45480</v>
       </c>
       <c r="B16" t="n">
-        <v>23.26</v>
+        <v>19.75</v>
       </c>
       <c r="C16" t="n">
-        <v>30062.67219994</v>
+        <v>37925.33179424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="B17" t="n">
-        <v>22.57</v>
+        <v>20.4</v>
       </c>
       <c r="C17" t="n">
-        <v>55936.61804204</v>
+        <v>79768.1102899</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45477</v>
+        <v>45482</v>
       </c>
       <c r="B18" t="n">
-        <v>20.76</v>
+        <v>20.65</v>
       </c>
       <c r="C18" t="n">
-        <v>106205.15133907</v>
+        <v>44107.85310204</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45478</v>
+        <v>45483</v>
       </c>
       <c r="B19" t="n">
-        <v>20.25</v>
+        <v>21.02</v>
       </c>
       <c r="C19" t="n">
-        <v>256792.37162603</v>
+        <v>49989.78738402</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45479</v>
+        <v>45484</v>
       </c>
       <c r="B20" t="n">
-        <v>21.19</v>
+        <v>20.67</v>
       </c>
       <c r="C20" t="n">
-        <v>52027.65205152</v>
+        <v>44412.28144115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45480</v>
+        <v>45485</v>
       </c>
       <c r="B21" t="n">
-        <v>19.75</v>
+        <v>21.48</v>
       </c>
       <c r="C21" t="n">
-        <v>37925.33179424</v>
+        <v>55840.27601972</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45481</v>
+        <v>45486</v>
       </c>
       <c r="B22" t="n">
-        <v>20.4</v>
+        <v>22.38</v>
       </c>
       <c r="C22" t="n">
-        <v>79768.1102899</v>
+        <v>73790.97602371</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45482</v>
+        <v>45487</v>
       </c>
       <c r="B23" t="n">
-        <v>20.65</v>
+        <v>22.56</v>
       </c>
       <c r="C23" t="n">
-        <v>44107.85310204</v>
+        <v>40856.06007391</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B24" t="n">
-        <v>21.02</v>
+        <v>23.9</v>
       </c>
       <c r="C24" t="n">
-        <v>49989.78738402</v>
+        <v>53925.5298484</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="B25" t="n">
-        <v>20.67</v>
+        <v>23.6</v>
       </c>
       <c r="C25" t="n">
-        <v>44412.28144115</v>
+        <v>47270.17573556</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45485</v>
+        <v>45490</v>
       </c>
       <c r="B26" t="n">
-        <v>21.48</v>
+        <v>22.95</v>
       </c>
       <c r="C26" t="n">
-        <v>55840.27601972</v>
+        <v>52676.3820893</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45486</v>
+        <v>45491</v>
       </c>
       <c r="B27" t="n">
-        <v>22.38</v>
+        <v>23</v>
       </c>
       <c r="C27" t="n">
-        <v>73790.97602371</v>
+        <v>33875.15003249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45487</v>
+        <v>45492</v>
       </c>
       <c r="B28" t="n">
-        <v>22.56</v>
+        <v>23.64</v>
       </c>
       <c r="C28" t="n">
-        <v>40856.06007391</v>
+        <v>48528.13239871</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45488</v>
+        <v>45493</v>
       </c>
       <c r="B29" t="n">
-        <v>23.9</v>
+        <v>23.93</v>
       </c>
       <c r="C29" t="n">
-        <v>53925.5298484</v>
+        <v>34358.35981173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45489</v>
+        <v>45494</v>
       </c>
       <c r="B30" t="n">
-        <v>23.6</v>
+        <v>24.15</v>
       </c>
       <c r="C30" t="n">
-        <v>47270.17573556</v>
+        <v>59319.33722959</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45490</v>
+        <v>45495</v>
       </c>
       <c r="B31" t="n">
-        <v>22.95</v>
+        <v>23.45</v>
       </c>
       <c r="C31" t="n">
-        <v>52676.3820893</v>
+        <v>66583.24278607</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45491</v>
+        <v>45496</v>
       </c>
       <c r="B32" t="n">
-        <v>23</v>
+        <v>24.02</v>
       </c>
       <c r="C32" t="n">
-        <v>33875.15003249</v>
+        <v>243181.91629622</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45492</v>
+        <v>45497</v>
       </c>
       <c r="B33" t="n">
-        <v>23.64</v>
+        <v>22.89</v>
       </c>
       <c r="C33" t="n">
-        <v>48528.13239871</v>
+        <v>42745.91588654</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45493</v>
+        <v>45498</v>
       </c>
       <c r="B34" t="n">
-        <v>23.93</v>
+        <v>22.11</v>
       </c>
       <c r="C34" t="n">
-        <v>34358.35981173</v>
+        <v>77567.78965044</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45494</v>
+        <v>45499</v>
       </c>
       <c r="B35" t="n">
-        <v>24.15</v>
+        <v>22.91</v>
       </c>
       <c r="C35" t="n">
-        <v>59319.33722959</v>
+        <v>35141.13085121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45495</v>
+        <v>45500</v>
       </c>
       <c r="B36" t="n">
-        <v>23.45</v>
+        <v>22.8</v>
       </c>
       <c r="C36" t="n">
-        <v>66583.24278607</v>
+        <v>28338.7908476</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45496</v>
+        <v>45501</v>
       </c>
       <c r="B37" t="n">
-        <v>24.02</v>
+        <v>22.64</v>
       </c>
       <c r="C37" t="n">
-        <v>243181.91629622</v>
+        <v>12245.82940864</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45497</v>
+        <v>45502</v>
       </c>
       <c r="B38" t="n">
-        <v>22.89</v>
+        <v>22.85</v>
       </c>
       <c r="C38" t="n">
-        <v>42745.91588654</v>
+        <v>47223.84515347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45498</v>
+        <v>45503</v>
       </c>
       <c r="B39" t="n">
-        <v>22.11</v>
+        <v>22.21</v>
       </c>
       <c r="C39" t="n">
-        <v>77567.78965044</v>
+        <v>18605.54253822</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="B40" t="n">
-        <v>22.91</v>
+        <v>21.77</v>
       </c>
       <c r="C40" t="n">
-        <v>35141.13085121</v>
+        <v>28306.51948737</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="B41" t="n">
-        <v>22.8</v>
+        <v>21.53</v>
       </c>
       <c r="C41" t="n">
-        <v>28338.7908476</v>
+        <v>121591.498799</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45501</v>
+        <v>45506</v>
       </c>
       <c r="B42" t="n">
-        <v>22.64</v>
+        <v>20.22</v>
       </c>
       <c r="C42" t="n">
-        <v>12245.82940864</v>
+        <v>47398.35338811</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45502</v>
+        <v>45507</v>
       </c>
       <c r="B43" t="n">
-        <v>22.85</v>
+        <v>19.66</v>
       </c>
       <c r="C43" t="n">
-        <v>47223.84515347</v>
+        <v>69629.60884319</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45503</v>
+        <v>45508</v>
       </c>
       <c r="B44" t="n">
-        <v>22.21</v>
+        <v>18.92</v>
       </c>
       <c r="C44" t="n">
-        <v>18605.54253822</v>
+        <v>89260.06669976001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45504</v>
+        <v>45509</v>
       </c>
       <c r="B45" t="n">
-        <v>21.77</v>
+        <v>17.67</v>
       </c>
       <c r="C45" t="n">
-        <v>28306.51948737</v>
+        <v>304740.58491559</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45505</v>
+        <v>45510</v>
       </c>
       <c r="B46" t="n">
-        <v>21.53</v>
+        <v>18.15</v>
       </c>
       <c r="C46" t="n">
-        <v>121591.498799</v>
+        <v>81636.44489574</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B47" t="n">
-        <v>20.22</v>
+        <v>18.11</v>
       </c>
       <c r="C47" t="n">
-        <v>47398.35338811</v>
+        <v>159288.41566048</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B48" t="n">
-        <v>19.66</v>
+        <v>19.85</v>
       </c>
       <c r="C48" t="n">
-        <v>69629.60884319</v>
+        <v>137249.70598967</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B49" t="n">
-        <v>18.92</v>
+        <v>19.43</v>
       </c>
       <c r="C49" t="n">
-        <v>89260.06669976001</v>
+        <v>66368.27156666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B50" t="n">
-        <v>17.67</v>
+        <v>19.39</v>
       </c>
       <c r="C50" t="n">
-        <v>304740.58491559</v>
+        <v>14074.49058592</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B51" t="n">
-        <v>18.15</v>
+        <v>18.42</v>
       </c>
       <c r="C51" t="n">
-        <v>81636.44489574</v>
+        <v>29952.17798615</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B52" t="n">
-        <v>18.11</v>
+        <v>19.19</v>
       </c>
       <c r="C52" t="n">
-        <v>159288.41566048</v>
+        <v>26336.41313614</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B53" t="n">
-        <v>19.85</v>
+        <v>19.18</v>
       </c>
       <c r="C53" t="n">
-        <v>137249.70598967</v>
+        <v>36472.25632379</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B54" t="n">
-        <v>19.43</v>
+        <v>18.86</v>
       </c>
       <c r="C54" t="n">
-        <v>66368.27156666</v>
+        <v>43616.55402017</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45514</v>
+        <v>45519</v>
       </c>
       <c r="B55" t="n">
-        <v>19.39</v>
+        <v>18.55</v>
       </c>
       <c r="C55" t="n">
-        <v>14074.49058592</v>
+        <v>57525.47563607</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45515</v>
+        <v>45520</v>
       </c>
       <c r="B56" t="n">
-        <v>18.42</v>
+        <v>18.74</v>
       </c>
       <c r="C56" t="n">
-        <v>29952.17798615</v>
+        <v>27119.77791614</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45516</v>
+        <v>45521</v>
       </c>
       <c r="B57" t="n">
-        <v>19.19</v>
+        <v>18.77</v>
       </c>
       <c r="C57" t="n">
-        <v>26336.41313614</v>
+        <v>10177.02197328</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45517</v>
+        <v>45522</v>
       </c>
       <c r="B58" t="n">
-        <v>19.18</v>
+        <v>18.56</v>
       </c>
       <c r="C58" t="n">
-        <v>36472.25632379</v>
+        <v>13783.33991181</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45518</v>
+        <v>45523</v>
       </c>
       <c r="B59" t="n">
-        <v>18.86</v>
+        <v>18.96</v>
       </c>
       <c r="C59" t="n">
-        <v>43616.55402017</v>
+        <v>17009.48306918</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="B60" t="n">
-        <v>18.55</v>
+        <v>18.88</v>
       </c>
       <c r="C60" t="n">
-        <v>57525.47563607</v>
+        <v>22811.08335662</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45520</v>
+        <v>45525</v>
       </c>
       <c r="B61" t="n">
-        <v>18.74</v>
+        <v>19.47</v>
       </c>
       <c r="C61" t="n">
-        <v>27119.77791614</v>
+        <v>55006.41724731</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45521</v>
+        <v>45526</v>
       </c>
       <c r="B62" t="n">
-        <v>18.77</v>
+        <v>19.49</v>
       </c>
       <c r="C62" t="n">
-        <v>10177.02197328</v>
+        <v>25212.94045248</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45522</v>
+        <v>45527</v>
       </c>
       <c r="B63" t="n">
-        <v>18.56</v>
+        <v>20.59</v>
       </c>
       <c r="C63" t="n">
-        <v>13783.33991181</v>
+        <v>57049.01101298</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45523</v>
+        <v>45528</v>
       </c>
       <c r="B64" t="n">
-        <v>18.96</v>
+        <v>20.64</v>
       </c>
       <c r="C64" t="n">
-        <v>17009.48306918</v>
+        <v>33547.48559594</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45524</v>
+        <v>45529</v>
       </c>
       <c r="B65" t="n">
-        <v>18.88</v>
+        <v>20.11</v>
       </c>
       <c r="C65" t="n">
-        <v>22811.08335662</v>
+        <v>22524.97881314</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="B66" t="n">
         <v>19.47</v>
       </c>
       <c r="C66" t="n">
-        <v>55006.41724731</v>
+        <v>45964.9519938</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="B67" t="n">
-        <v>19.49</v>
+        <v>18.31</v>
       </c>
       <c r="C67" t="n">
-        <v>25212.94045248</v>
+        <v>47684.02163399</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="B68" t="n">
-        <v>20.59</v>
+        <v>18.58</v>
       </c>
       <c r="C68" t="n">
-        <v>57049.01101298</v>
+        <v>74024.33238818</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45528</v>
+        <v>45533</v>
       </c>
       <c r="B69" t="n">
-        <v>20.64</v>
+        <v>18.48</v>
       </c>
       <c r="C69" t="n">
-        <v>33547.48559594</v>
+        <v>24456.82569489</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45529</v>
+        <v>45534</v>
       </c>
       <c r="B70" t="n">
-        <v>20.11</v>
+        <v>18.57</v>
       </c>
       <c r="C70" t="n">
-        <v>22524.97881314</v>
+        <v>23429.05472835</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45530</v>
+        <v>45535</v>
       </c>
       <c r="B71" t="n">
-        <v>19.47</v>
+        <v>18.38</v>
       </c>
       <c r="C71" t="n">
-        <v>45964.9519938</v>
+        <v>23943.17594345</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45531</v>
+        <v>45536</v>
       </c>
       <c r="B72" t="n">
-        <v>18.31</v>
+        <v>17.65</v>
       </c>
       <c r="C72" t="n">
-        <v>47684.02163399</v>
+        <v>55752.89965069</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45532</v>
+        <v>45537</v>
       </c>
       <c r="B73" t="n">
-        <v>18.58</v>
+        <v>18.26</v>
       </c>
       <c r="C73" t="n">
-        <v>74024.33238818</v>
+        <v>24138.48007834</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45533</v>
+        <v>45538</v>
       </c>
       <c r="B74" t="n">
-        <v>18.48</v>
+        <v>17.65</v>
       </c>
       <c r="C74" t="n">
-        <v>24456.82569489</v>
+        <v>15561.30808828</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45534</v>
+        <v>45539</v>
       </c>
       <c r="B75" t="n">
-        <v>18.57</v>
+        <v>18.1</v>
       </c>
       <c r="C75" t="n">
-        <v>23429.05472835</v>
+        <v>31920.93423239</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45535</v>
+        <v>45540</v>
       </c>
       <c r="B76" t="n">
-        <v>18.38</v>
+        <v>17.61</v>
       </c>
       <c r="C76" t="n">
-        <v>23943.17594345</v>
+        <v>42561.72140105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45536</v>
+        <v>45541</v>
       </c>
       <c r="B77" t="n">
-        <v>17.65</v>
+        <v>17.3</v>
       </c>
       <c r="C77" t="n">
-        <v>55752.89965069</v>
+        <v>45030.85121128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45537</v>
+        <v>45542</v>
       </c>
       <c r="B78" t="n">
-        <v>18.26</v>
+        <v>17.61</v>
       </c>
       <c r="C78" t="n">
-        <v>24138.48007834</v>
+        <v>17567.09976811</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45538</v>
+        <v>45543</v>
       </c>
       <c r="B79" t="n">
-        <v>17.65</v>
+        <v>17.94</v>
       </c>
       <c r="C79" t="n">
-        <v>15561.30808828</v>
+        <v>14735.94224614</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="B80" t="n">
-        <v>18.1</v>
+        <v>18.32</v>
       </c>
       <c r="C80" t="n">
-        <v>31920.93423239</v>
+        <v>30388.68314324</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45540</v>
+        <v>45545</v>
       </c>
       <c r="B81" t="n">
-        <v>17.61</v>
+        <v>18.55</v>
       </c>
       <c r="C81" t="n">
-        <v>42561.72140105</v>
+        <v>12493.71389468</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45541</v>
+        <v>45546</v>
       </c>
       <c r="B82" t="n">
-        <v>17.3</v>
+        <v>18.45</v>
       </c>
       <c r="C82" t="n">
-        <v>45030.85121128</v>
+        <v>19811.24343946</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45542</v>
+        <v>45547</v>
       </c>
       <c r="B83" t="n">
-        <v>17.61</v>
+        <v>18.54</v>
       </c>
       <c r="C83" t="n">
-        <v>17567.09976811</v>
+        <v>11832.62120442</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45543</v>
+        <v>45548</v>
       </c>
       <c r="B84" t="n">
-        <v>17.94</v>
+        <v>18.86</v>
       </c>
       <c r="C84" t="n">
-        <v>14735.94224614</v>
+        <v>18928.25452976</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45544</v>
+        <v>45549</v>
       </c>
       <c r="B85" t="n">
-        <v>18.32</v>
+        <v>18.6</v>
       </c>
       <c r="C85" t="n">
-        <v>30388.68314324</v>
+        <v>12913.88950591</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45545</v>
+        <v>45550</v>
       </c>
       <c r="B86" t="n">
-        <v>18.55</v>
+        <v>17.83</v>
       </c>
       <c r="C86" t="n">
-        <v>12493.71389468</v>
+        <v>24575.38232472</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45546</v>
+        <v>45551</v>
       </c>
       <c r="B87" t="n">
-        <v>18.45</v>
+        <v>17.74</v>
       </c>
       <c r="C87" t="n">
-        <v>19811.24343946</v>
+        <v>17589.44153014</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45547</v>
+        <v>45552</v>
       </c>
       <c r="B88" t="n">
-        <v>18.54</v>
+        <v>17.98</v>
       </c>
       <c r="C88" t="n">
-        <v>11832.62120442</v>
+        <v>19802.62055369</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="B89" t="n">
-        <v>18.86</v>
+        <v>18.31</v>
       </c>
       <c r="C89" t="n">
-        <v>18928.25452976</v>
+        <v>22975.40092355</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45549</v>
+        <v>45554</v>
       </c>
       <c r="B90" t="n">
-        <v>18.6</v>
+        <v>18.77</v>
       </c>
       <c r="C90" t="n">
-        <v>12913.88950591</v>
+        <v>58559.37178126</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45550</v>
+        <v>45555</v>
       </c>
       <c r="B91" t="n">
-        <v>17.83</v>
+        <v>18.99</v>
       </c>
       <c r="C91" t="n">
-        <v>24575.38232472</v>
+        <v>42295.14883776</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45551</v>
+        <v>45556</v>
       </c>
       <c r="B92" t="n">
-        <v>17.74</v>
+        <v>19.36</v>
       </c>
       <c r="C92" t="n">
-        <v>17589.44153014</v>
+        <v>15348.12843626</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45552</v>
+        <v>45557</v>
       </c>
       <c r="B93" t="n">
-        <v>17.98</v>
+        <v>18.91</v>
       </c>
       <c r="C93" t="n">
-        <v>19802.62055369</v>
+        <v>26155.08744194</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45553</v>
+        <v>45558</v>
       </c>
       <c r="B94" t="n">
-        <v>18.31</v>
+        <v>19.1</v>
       </c>
       <c r="C94" t="n">
-        <v>22975.40092355</v>
+        <v>39056.42377398</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45554</v>
+        <v>45559</v>
       </c>
       <c r="B95" t="n">
-        <v>18.77</v>
+        <v>19.41</v>
       </c>
       <c r="C95" t="n">
-        <v>58559.37178126</v>
+        <v>36619.65840275</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45555</v>
+        <v>45560</v>
       </c>
       <c r="B96" t="n">
-        <v>18.99</v>
+        <v>19.29</v>
       </c>
       <c r="C96" t="n">
-        <v>42295.14883776</v>
+        <v>32480.30481868</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45556</v>
+        <v>45561</v>
       </c>
       <c r="B97" t="n">
-        <v>19.36</v>
+        <v>20.3</v>
       </c>
       <c r="C97" t="n">
-        <v>15348.12843626</v>
+        <v>85856.19202397</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45557</v>
+        <v>45562</v>
       </c>
       <c r="B98" t="n">
-        <v>18.91</v>
+        <v>20.82</v>
       </c>
       <c r="C98" t="n">
-        <v>26155.08744194</v>
+        <v>46154.68900844</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45558</v>
+        <v>45563</v>
       </c>
       <c r="B99" t="n">
-        <v>19.1</v>
+        <v>20.57</v>
       </c>
       <c r="C99" t="n">
-        <v>39056.42377398</v>
+        <v>28117.62851747</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45559</v>
+        <v>45564</v>
       </c>
       <c r="B100" t="n">
-        <v>19.41</v>
+        <v>20.43</v>
       </c>
       <c r="C100" t="n">
-        <v>36619.65840275</v>
+        <v>18559.13532108</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45560</v>
+        <v>45565</v>
       </c>
       <c r="B101" t="n">
-        <v>19.29</v>
+        <v>19.46</v>
       </c>
       <c r="C101" t="n">
-        <v>32480.30481868</v>
+        <v>46031.51245384</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45561</v>
+        <v>45566</v>
       </c>
       <c r="B102" t="n">
-        <v>20.3</v>
+        <v>18.41</v>
       </c>
       <c r="C102" t="n">
-        <v>85856.19202397</v>
+        <v>89090.15873503</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45562</v>
+        <v>45567</v>
       </c>
       <c r="B103" t="n">
-        <v>20.82</v>
+        <v>17.94</v>
       </c>
       <c r="C103" t="n">
-        <v>46154.68900844</v>
+        <v>62378.60580713</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45563</v>
+        <v>45568</v>
       </c>
       <c r="B104" t="n">
-        <v>20.57</v>
+        <v>18.51</v>
       </c>
       <c r="C104" t="n">
-        <v>28117.62851747</v>
+        <v>72282.18981291</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45564</v>
+        <v>45569</v>
       </c>
       <c r="B105" t="n">
-        <v>20.43</v>
+        <v>18.75</v>
       </c>
       <c r="C105" t="n">
-        <v>18559.13532108</v>
+        <v>40142.89775799</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45565</v>
+        <v>45570</v>
       </c>
       <c r="B106" t="n">
-        <v>19.46</v>
+        <v>18.55</v>
       </c>
       <c r="C106" t="n">
-        <v>46031.51245384</v>
+        <v>8397.71370027</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45566</v>
+        <v>45571</v>
       </c>
       <c r="B107" t="n">
-        <v>18.41</v>
+        <v>18.76</v>
       </c>
       <c r="C107" t="n">
-        <v>89090.15873503</v>
+        <v>12429.16656408</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45567</v>
+        <v>45572</v>
       </c>
       <c r="B108" t="n">
-        <v>17.94</v>
+        <v>18.53</v>
       </c>
       <c r="C108" t="n">
-        <v>62378.60580713</v>
+        <v>28216.9419204</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45568</v>
+        <v>45573</v>
       </c>
       <c r="B109" t="n">
-        <v>18.51</v>
+        <v>18.34</v>
       </c>
       <c r="C109" t="n">
-        <v>72282.18981291</v>
+        <v>17950.39491838</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45569</v>
+        <v>45574</v>
       </c>
       <c r="B110" t="n">
-        <v>18.75</v>
+        <v>18.12</v>
       </c>
       <c r="C110" t="n">
-        <v>40142.89775799</v>
+        <v>13380.54770777</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45570</v>
+        <v>45575</v>
       </c>
       <c r="B111" t="n">
-        <v>18.55</v>
+        <v>18.06</v>
       </c>
       <c r="C111" t="n">
-        <v>8397.71370027</v>
+        <v>12125.49798498</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45571</v>
+        <v>45576</v>
       </c>
       <c r="B112" t="n">
-        <v>18.76</v>
+        <v>18.57</v>
       </c>
       <c r="C112" t="n">
-        <v>12429.16656408</v>
+        <v>20722.01471392</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45572</v>
+        <v>45577</v>
       </c>
       <c r="B113" t="n">
-        <v>18.53</v>
+        <v>18.79</v>
       </c>
       <c r="C113" t="n">
-        <v>28216.9419204</v>
+        <v>12404.46829814</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45573</v>
+        <v>45578</v>
       </c>
       <c r="B114" t="n">
-        <v>18.34</v>
+        <v>18.54</v>
       </c>
       <c r="C114" t="n">
-        <v>17950.39491838</v>
+        <v>14530.06180561</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45574</v>
+        <v>45579</v>
       </c>
       <c r="B115" t="n">
-        <v>18.12</v>
+        <v>19.49</v>
       </c>
       <c r="C115" t="n">
-        <v>13380.54770777</v>
+        <v>42505.71162829</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45575</v>
+        <v>45580</v>
       </c>
       <c r="B116" t="n">
-        <v>18.06</v>
+        <v>19.35</v>
       </c>
       <c r="C116" t="n">
-        <v>12125.49798498</v>
+        <v>50560.64932577</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45576</v>
+        <v>45581</v>
       </c>
       <c r="B117" t="n">
-        <v>18.57</v>
+        <v>19.35</v>
       </c>
       <c r="C117" t="n">
-        <v>20722.01471392</v>
+        <v>32458.11274495</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45577</v>
+        <v>45582</v>
       </c>
       <c r="B118" t="n">
-        <v>18.79</v>
+        <v>19.04</v>
       </c>
       <c r="C118" t="n">
-        <v>12404.46829814</v>
+        <v>35184.13540011</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45578</v>
+        <v>45583</v>
       </c>
       <c r="B119" t="n">
-        <v>18.54</v>
+        <v>19.36</v>
       </c>
       <c r="C119" t="n">
-        <v>14530.06180561</v>
+        <v>26118.45611361</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45579</v>
+        <v>45584</v>
       </c>
       <c r="B120" t="n">
-        <v>19.49</v>
+        <v>19.91</v>
       </c>
       <c r="C120" t="n">
-        <v>42505.71162829</v>
+        <v>37848.50063328</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45580</v>
+        <v>45585</v>
       </c>
       <c r="B121" t="n">
-        <v>19.35</v>
+        <v>20.18</v>
       </c>
       <c r="C121" t="n">
-        <v>50560.64932577</v>
+        <v>64972.86083763</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45581</v>
+        <v>45586</v>
       </c>
       <c r="B122" t="n">
-        <v>19.35</v>
+        <v>19.42</v>
       </c>
       <c r="C122" t="n">
-        <v>32458.11274495</v>
+        <v>48006.69279065</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45582</v>
+        <v>45587</v>
       </c>
       <c r="B123" t="n">
-        <v>19.04</v>
+        <v>19.03</v>
       </c>
       <c r="C123" t="n">
-        <v>35184.13540011</v>
+        <v>33601.09208042</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45583</v>
+        <v>45588</v>
       </c>
       <c r="B124" t="n">
-        <v>19.36</v>
+        <v>18.63</v>
       </c>
       <c r="C124" t="n">
-        <v>26118.45611361</v>
+        <v>30094.64362923</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45584</v>
+        <v>45589</v>
       </c>
       <c r="B125" t="n">
-        <v>19.91</v>
+        <v>18.86</v>
       </c>
       <c r="C125" t="n">
-        <v>37848.50063328</v>
+        <v>17397.54456067</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45585</v>
+        <v>45590</v>
       </c>
       <c r="B126" t="n">
-        <v>20.18</v>
+        <v>18.23</v>
       </c>
       <c r="C126" t="n">
-        <v>64972.86083763</v>
+        <v>63372.40868661</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45586</v>
+        <v>45591</v>
       </c>
       <c r="B127" t="n">
-        <v>19.42</v>
+        <v>18.19</v>
       </c>
       <c r="C127" t="n">
-        <v>48006.69279065</v>
+        <v>25274.91458696</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45587</v>
+        <v>45592</v>
       </c>
       <c r="B128" t="n">
-        <v>19.03</v>
+        <v>18.38</v>
       </c>
       <c r="C128" t="n">
-        <v>33601.09208042</v>
+        <v>15338.82383935</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45588</v>
+        <v>45593</v>
       </c>
       <c r="B129" t="n">
-        <v>18.63</v>
+        <v>18.98</v>
       </c>
       <c r="C129" t="n">
-        <v>30094.64362923</v>
+        <v>46725.94238984</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45589</v>
+        <v>45594</v>
       </c>
       <c r="B130" t="n">
-        <v>18.86</v>
+        <v>19.42</v>
       </c>
       <c r="C130" t="n">
-        <v>17397.54456067</v>
+        <v>33903.82685943</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45590</v>
+        <v>45595</v>
       </c>
       <c r="B131" t="n">
-        <v>18.23</v>
+        <v>19.44</v>
       </c>
       <c r="C131" t="n">
-        <v>63372.40868661</v>
+        <v>26454.51787557</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45591</v>
+        <v>45596</v>
       </c>
       <c r="B132" t="n">
-        <v>18.19</v>
+        <v>18.59</v>
       </c>
       <c r="C132" t="n">
-        <v>25274.91458696</v>
+        <v>31696.9113661</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45592</v>
+        <v>45597</v>
       </c>
       <c r="B133" t="n">
-        <v>18.38</v>
+        <v>18.45</v>
       </c>
       <c r="C133" t="n">
-        <v>15338.82383935</v>
+        <v>69120.47726095001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45593</v>
+        <v>45598</v>
       </c>
       <c r="B134" t="n">
-        <v>18.98</v>
+        <v>18.11</v>
       </c>
       <c r="C134" t="n">
-        <v>46725.94238984</v>
+        <v>18719.0725382</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45594</v>
+        <v>45599</v>
       </c>
       <c r="B135" t="n">
-        <v>19.42</v>
+        <v>17.79</v>
       </c>
       <c r="C135" t="n">
-        <v>33903.82685943</v>
+        <v>36429.25666504</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45595</v>
+        <v>45600</v>
       </c>
       <c r="B136" t="n">
-        <v>19.44</v>
+        <v>17.6</v>
       </c>
       <c r="C136" t="n">
-        <v>26454.51787557</v>
+        <v>21633.69486387</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45596</v>
+        <v>45601</v>
       </c>
       <c r="B137" t="n">
-        <v>18.59</v>
+        <v>18.23</v>
       </c>
       <c r="C137" t="n">
-        <v>31696.9113661</v>
+        <v>26199.96155842</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45597</v>
+        <v>45602</v>
       </c>
       <c r="B138" t="n">
-        <v>18.45</v>
+        <v>19.7</v>
       </c>
       <c r="C138" t="n">
-        <v>69120.47726095001</v>
+        <v>125897.54031094</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45598</v>
+        <v>45603</v>
       </c>
       <c r="B139" t="n">
-        <v>18.11</v>
+        <v>20.26</v>
       </c>
       <c r="C139" t="n">
-        <v>18719.0725382</v>
+        <v>136917.34256895</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45599</v>
+        <v>45604</v>
       </c>
       <c r="B140" t="n">
-        <v>17.79</v>
+        <v>20.46</v>
       </c>
       <c r="C140" t="n">
-        <v>36429.25666504</v>
+        <v>85755.58903464</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45600</v>
+        <v>45605</v>
       </c>
       <c r="B141" t="n">
-        <v>17.6</v>
+        <v>21.78</v>
       </c>
       <c r="C141" t="n">
-        <v>21633.69486387</v>
+        <v>189383.05888826</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45601</v>
+        <v>45606</v>
       </c>
       <c r="B142" t="n">
-        <v>18.23</v>
+        <v>23.08</v>
       </c>
       <c r="C142" t="n">
-        <v>26199.96155842</v>
+        <v>290807.3876677</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45602</v>
+        <v>45607</v>
       </c>
       <c r="B143" t="n">
-        <v>19.7</v>
+        <v>24.4</v>
       </c>
       <c r="C143" t="n">
-        <v>125897.54031094</v>
+        <v>239878.47054873</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45603</v>
+        <v>45608</v>
       </c>
       <c r="B144" t="n">
-        <v>20.26</v>
+        <v>22.8</v>
       </c>
       <c r="C144" t="n">
-        <v>136917.34256895</v>
+        <v>389564.54835628</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45604</v>
+        <v>45609</v>
       </c>
       <c r="B145" t="n">
-        <v>20.46</v>
+        <v>22.09</v>
       </c>
       <c r="C145" t="n">
-        <v>85755.58903464</v>
+        <v>274150.91644095</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45605</v>
+        <v>45610</v>
       </c>
       <c r="B146" t="n">
-        <v>21.78</v>
+        <v>21.82</v>
       </c>
       <c r="C146" t="n">
-        <v>189383.05888826</v>
+        <v>173579.63332205</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45606</v>
+        <v>45611</v>
       </c>
       <c r="B147" t="n">
-        <v>23.08</v>
+        <v>22.99</v>
       </c>
       <c r="C147" t="n">
-        <v>290807.3876677</v>
+        <v>185859.96507727</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45607</v>
+        <v>45612</v>
       </c>
       <c r="B148" t="n">
-        <v>24.4</v>
+        <v>26.73</v>
       </c>
       <c r="C148" t="n">
-        <v>239878.47054873</v>
+        <v>800823.4737875001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45608</v>
+        <v>45613</v>
       </c>
       <c r="B149" t="n">
-        <v>22.8</v>
+        <v>25.86</v>
       </c>
       <c r="C149" t="n">
-        <v>389564.54835628</v>
+        <v>481758.09052972</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45609</v>
+        <v>45614</v>
       </c>
       <c r="B150" t="n">
-        <v>22.09</v>
+        <v>27.06</v>
       </c>
       <c r="C150" t="n">
-        <v>274150.91644095</v>
+        <v>305495.33825508</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45610</v>
+        <v>45615</v>
       </c>
       <c r="B151" t="n">
-        <v>21.82</v>
+        <v>26.2</v>
       </c>
       <c r="C151" t="n">
-        <v>173579.63332205</v>
+        <v>184150.17476877</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45611</v>
+        <v>45616</v>
       </c>
       <c r="B152" t="n">
-        <v>22.99</v>
+        <v>25.4</v>
       </c>
       <c r="C152" t="n">
-        <v>185859.96507727</v>
+        <v>175720.09507503</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45612</v>
+        <v>45617</v>
       </c>
       <c r="B153" t="n">
-        <v>26.73</v>
+        <v>27.37</v>
       </c>
       <c r="C153" t="n">
-        <v>800823.4737875001</v>
+        <v>496345.17543398</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45613</v>
+        <v>45618</v>
       </c>
       <c r="B154" t="n">
-        <v>25.86</v>
+        <v>28.55</v>
       </c>
       <c r="C154" t="n">
-        <v>481758.09052972</v>
+        <v>364893.97673725</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45614</v>
+        <v>45619</v>
       </c>
       <c r="B155" t="n">
-        <v>27.06</v>
+        <v>29.65</v>
       </c>
       <c r="C155" t="n">
-        <v>305495.33825508</v>
+        <v>590443.64576795</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45615</v>
+        <v>45620</v>
       </c>
       <c r="B156" t="n">
-        <v>26.2</v>
+        <v>28.87</v>
       </c>
       <c r="C156" t="n">
-        <v>184150.17476877</v>
+        <v>341176.89595844</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45616</v>
+        <v>45621</v>
       </c>
       <c r="B157" t="n">
-        <v>25.4</v>
+        <v>29.75</v>
       </c>
       <c r="C157" t="n">
-        <v>175720.09507503</v>
+        <v>530840.26523628</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45617</v>
+        <v>45622</v>
       </c>
       <c r="B158" t="n">
-        <v>27.37</v>
+        <v>28.33</v>
       </c>
       <c r="C158" t="n">
-        <v>496345.17543398</v>
+        <v>323507.56460547</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45618</v>
+        <v>45623</v>
       </c>
       <c r="B159" t="n">
-        <v>28.55</v>
+        <v>32.91</v>
       </c>
       <c r="C159" t="n">
-        <v>364893.97673725</v>
+        <v>484669.33699785</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45619</v>
+        <v>45624</v>
       </c>
       <c r="B160" t="n">
-        <v>29.65</v>
+        <v>31.91</v>
       </c>
       <c r="C160" t="n">
-        <v>590443.64576795</v>
+        <v>395382.98813296</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45620</v>
+        <v>45625</v>
       </c>
       <c r="B161" t="n">
-        <v>28.87</v>
+        <v>31.95</v>
       </c>
       <c r="C161" t="n">
-        <v>341176.89595844</v>
+        <v>149265.10421442</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45621</v>
+        <v>45626</v>
       </c>
       <c r="B162" t="n">
-        <v>29.75</v>
+        <v>32.71</v>
       </c>
       <c r="C162" t="n">
-        <v>530840.26523628</v>
+        <v>297969.34131697</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45622</v>
+        <v>45627</v>
       </c>
       <c r="B163" t="n">
-        <v>28.33</v>
+        <v>33.32</v>
       </c>
       <c r="C163" t="n">
-        <v>323507.56460547</v>
+        <v>276938.18684127</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="B164" t="n">
-        <v>32.91</v>
+        <v>33.9</v>
       </c>
       <c r="C164" t="n">
-        <v>484669.33699785</v>
+        <v>647263.13117759</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45624</v>
+        <v>45629</v>
       </c>
       <c r="B165" t="n">
-        <v>31.91</v>
+        <v>34.73</v>
       </c>
       <c r="C165" t="n">
-        <v>395382.98813296</v>
+        <v>743264.9689466699</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45625</v>
+        <v>45630</v>
       </c>
       <c r="B166" t="n">
-        <v>31.95</v>
+        <v>37.89</v>
       </c>
       <c r="C166" t="n">
-        <v>149265.10421442</v>
+        <v>1263552.29058551</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45626</v>
+        <v>45631</v>
       </c>
       <c r="B167" t="n">
-        <v>32.71</v>
+        <v>35.65</v>
       </c>
       <c r="C167" t="n">
-        <v>297969.34131697</v>
+        <v>887516.07153271</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45627</v>
+        <v>45632</v>
       </c>
       <c r="B168" t="n">
-        <v>33.32</v>
+        <v>38.34</v>
       </c>
       <c r="C168" t="n">
-        <v>276938.18684127</v>
+        <v>761141.81701135</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45628</v>
+        <v>45633</v>
       </c>
       <c r="B169" t="n">
-        <v>33.9</v>
+        <v>37.24</v>
       </c>
       <c r="C169" t="n">
-        <v>647263.13117759</v>
+        <v>250860.18980121</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45629</v>
+        <v>45634</v>
       </c>
       <c r="B170" t="n">
-        <v>34.73</v>
+        <v>37.12</v>
       </c>
       <c r="C170" t="n">
-        <v>743264.9689466699</v>
+        <v>149280.80854636</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45630</v>
+        <v>45635</v>
       </c>
       <c r="B171" t="n">
-        <v>37.89</v>
+        <v>31.46</v>
       </c>
       <c r="C171" t="n">
-        <v>1263552.29058551</v>
+        <v>548727.89858693</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="B172" t="n">
-        <v>35.65</v>
+        <v>30.23</v>
       </c>
       <c r="C172" t="n">
-        <v>887516.07153271</v>
+        <v>592177.03386379</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="B173" t="n">
-        <v>38.34</v>
+        <v>33.5</v>
       </c>
       <c r="C173" t="n">
-        <v>761141.81701135</v>
+        <v>511287.31276699</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45633</v>
+        <v>45638</v>
       </c>
       <c r="B174" t="n">
-        <v>37.24</v>
+        <v>33.82</v>
       </c>
       <c r="C174" t="n">
-        <v>250860.18980121</v>
+        <v>569042.54742917</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45634</v>
+        <v>45639</v>
       </c>
       <c r="B175" t="n">
-        <v>37.12</v>
+        <v>34.03</v>
       </c>
       <c r="C175" t="n">
-        <v>149280.80854636</v>
+        <v>353862.09342309</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45635</v>
+        <v>45640</v>
       </c>
       <c r="B176" t="n">
-        <v>31.46</v>
+        <v>32.58</v>
       </c>
       <c r="C176" t="n">
-        <v>548727.89858693</v>
+        <v>175110.17321799</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45636</v>
+        <v>45641</v>
       </c>
       <c r="B177" t="n">
-        <v>30.23</v>
+        <v>33.76</v>
       </c>
       <c r="C177" t="n">
-        <v>592177.03386379</v>
+        <v>198971.71768796</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45637</v>
+        <v>45642</v>
       </c>
       <c r="B178" t="n">
-        <v>33.5</v>
+        <v>33.22</v>
       </c>
       <c r="C178" t="n">
-        <v>511287.31276699</v>
+        <v>432926.96898245</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45638</v>
+        <v>45643</v>
       </c>
       <c r="B179" t="n">
-        <v>33.82</v>
+        <v>32.52</v>
       </c>
       <c r="C179" t="n">
-        <v>569042.54742917</v>
+        <v>189709.74794871</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45639</v>
+        <v>45644</v>
       </c>
       <c r="B180" t="n">
-        <v>34.03</v>
+        <v>29.38</v>
       </c>
       <c r="C180" t="n">
-        <v>353862.09342309</v>
+        <v>250256.84980499</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45640</v>
+        <v>45645</v>
       </c>
       <c r="B181" t="n">
-        <v>32.58</v>
+        <v>26.71</v>
       </c>
       <c r="C181" t="n">
-        <v>175110.17321799</v>
+        <v>412444.27156635</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45641</v>
+        <v>45646</v>
       </c>
       <c r="B182" t="n">
-        <v>33.76</v>
+        <v>27.44</v>
       </c>
       <c r="C182" t="n">
-        <v>198971.71768796</v>
+        <v>435473.45682739</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45642</v>
+        <v>45647</v>
       </c>
       <c r="B183" t="n">
-        <v>33.22</v>
+        <v>26.05</v>
       </c>
       <c r="C183" t="n">
-        <v>432926.96898245</v>
+        <v>191441.35626117</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45643</v>
+        <v>45648</v>
       </c>
       <c r="B184" t="n">
-        <v>32.52</v>
+        <v>25.98</v>
       </c>
       <c r="C184" t="n">
-        <v>189709.74794871</v>
+        <v>80316.76339204999</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45644</v>
+        <v>45649</v>
       </c>
       <c r="B185" t="n">
-        <v>29.38</v>
+        <v>27.51</v>
       </c>
       <c r="C185" t="n">
-        <v>250256.84980499</v>
+        <v>173041.63612071</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45645</v>
+        <v>45650</v>
       </c>
       <c r="B186" t="n">
-        <v>26.71</v>
+        <v>27.9</v>
       </c>
       <c r="C186" t="n">
-        <v>412444.27156635</v>
+        <v>105678.43935506</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45646</v>
+        <v>45651</v>
       </c>
       <c r="B187" t="n">
-        <v>27.44</v>
+        <v>27.31</v>
       </c>
       <c r="C187" t="n">
-        <v>435473.45682739</v>
+        <v>63504.66549458</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45647</v>
+        <v>45652</v>
       </c>
       <c r="B188" t="n">
-        <v>26.05</v>
+        <v>25.86</v>
       </c>
       <c r="C188" t="n">
-        <v>191441.35626117</v>
+        <v>122640.03594654</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="B189" t="n">
-        <v>25.98</v>
+        <v>25.94</v>
       </c>
       <c r="C189" t="n">
-        <v>80316.76339204999</v>
+        <v>42292.91735949</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45649</v>
+        <v>45654</v>
       </c>
       <c r="B190" t="n">
-        <v>27.51</v>
+        <v>26.54</v>
       </c>
       <c r="C190" t="n">
-        <v>173041.63612071</v>
+        <v>39659.78510825</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45650</v>
+        <v>45655</v>
       </c>
       <c r="B191" t="n">
-        <v>27.9</v>
+        <v>25.46</v>
       </c>
       <c r="C191" t="n">
-        <v>105678.43935506</v>
+        <v>57602.05606553</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45651</v>
+        <v>45656</v>
       </c>
       <c r="B192" t="n">
-        <v>27.31</v>
+        <v>25.39</v>
       </c>
       <c r="C192" t="n">
-        <v>63504.66549458</v>
+        <v>140638.83227284</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45652</v>
+        <v>45657</v>
       </c>
       <c r="B193" t="n">
-        <v>25.86</v>
+        <v>24.96</v>
       </c>
       <c r="C193" t="n">
-        <v>122640.03594654</v>
+        <v>157415.98982747</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="B194" t="n">
-        <v>25.94</v>
+        <v>25.79</v>
       </c>
       <c r="C194" t="n">
-        <v>42292.91735949</v>
+        <v>251605.23999064</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45654</v>
+        <v>45659</v>
       </c>
       <c r="B195" t="n">
-        <v>26.54</v>
+        <v>26.89</v>
       </c>
       <c r="C195" t="n">
-        <v>39659.78510825</v>
+        <v>199244.84459592</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45655</v>
+        <v>45660</v>
       </c>
       <c r="B196" t="n">
-        <v>25.46</v>
+        <v>28.47</v>
       </c>
       <c r="C196" t="n">
-        <v>57602.05606553</v>
+        <v>187570.38798552</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45656</v>
+        <v>45661</v>
       </c>
       <c r="B197" t="n">
-        <v>25.39</v>
+        <v>28.36</v>
       </c>
       <c r="C197" t="n">
-        <v>140638.83227284</v>
+        <v>112090.02431386</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45657</v>
+        <v>45662</v>
       </c>
       <c r="B198" t="n">
-        <v>24.96</v>
+        <v>28.14</v>
       </c>
       <c r="C198" t="n">
-        <v>157415.98982747</v>
+        <v>64994.67696532</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="B199" t="n">
-        <v>25.79</v>
+        <v>28.69</v>
       </c>
       <c r="C199" t="n">
-        <v>251605.23999064</v>
+        <v>117296.07273355</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45659</v>
+        <v>45664</v>
       </c>
       <c r="B200" t="n">
-        <v>26.89</v>
+        <v>25.91</v>
       </c>
       <c r="C200" t="n">
-        <v>199244.84459592</v>
+        <v>312805.55941774</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45660</v>
+        <v>45665</v>
       </c>
       <c r="B201" t="n">
-        <v>28.47</v>
+        <v>25.25</v>
       </c>
       <c r="C201" t="n">
-        <v>187570.38798552</v>
+        <v>308140.4638855</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45661</v>
+        <v>45666</v>
       </c>
       <c r="B202" t="n">
-        <v>28.36</v>
+        <v>24.91</v>
       </c>
       <c r="C202" t="n">
-        <v>112090.02431386</v>
+        <v>129684.40665315</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45662</v>
+        <v>45667</v>
       </c>
       <c r="B203" t="n">
-        <v>28.14</v>
+        <v>25.66</v>
       </c>
       <c r="C203" t="n">
-        <v>64994.67696532</v>
+        <v>106521.25720221</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45663</v>
+        <v>45668</v>
       </c>
       <c r="B204" t="n">
-        <v>28.69</v>
+        <v>25.56</v>
       </c>
       <c r="C204" t="n">
-        <v>117296.07273355</v>
+        <v>31197.03002699</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45664</v>
+        <v>45669</v>
       </c>
       <c r="B205" t="n">
-        <v>25.91</v>
+        <v>25.25</v>
       </c>
       <c r="C205" t="n">
-        <v>312805.55941774</v>
+        <v>26169.05679572</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45665</v>
+        <v>45670</v>
       </c>
       <c r="B206" t="n">
-        <v>25.25</v>
+        <v>24.6</v>
       </c>
       <c r="C206" t="n">
-        <v>308140.4638855</v>
+        <v>113794.46560115</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45666</v>
+        <v>45671</v>
       </c>
       <c r="B207" t="n">
-        <v>24.91</v>
+        <v>25.38</v>
       </c>
       <c r="C207" t="n">
-        <v>129684.40665315</v>
+        <v>74541.96184294</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45667</v>
+        <v>45672</v>
       </c>
       <c r="B208" t="n">
-        <v>25.66</v>
+        <v>27.12</v>
       </c>
       <c r="C208" t="n">
-        <v>106521.25720221</v>
+        <v>243893.46025077</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45668</v>
+        <v>45673</v>
       </c>
       <c r="B209" t="n">
-        <v>25.56</v>
+        <v>26.69</v>
       </c>
       <c r="C209" t="n">
-        <v>31197.03002699</v>
+        <v>137596.09225321</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45669</v>
+        <v>45674</v>
       </c>
       <c r="B210" t="n">
-        <v>25.25</v>
+        <v>28.29</v>
       </c>
       <c r="C210" t="n">
-        <v>26169.05679572</v>
+        <v>162102.40385248</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45670</v>
+        <v>45675</v>
       </c>
       <c r="B211" t="n">
-        <v>24.6</v>
+        <v>26.89</v>
       </c>
       <c r="C211" t="n">
-        <v>113794.46560115</v>
+        <v>174892.08622077</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45671</v>
+        <v>45676</v>
       </c>
       <c r="B212" t="n">
-        <v>25.38</v>
+        <v>25.4</v>
       </c>
       <c r="C212" t="n">
-        <v>74541.96184294</v>
+        <v>316614.07909318</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45672</v>
+        <v>45677</v>
       </c>
       <c r="B213" t="n">
-        <v>27.12</v>
+        <v>25.76</v>
       </c>
       <c r="C213" t="n">
-        <v>243893.46025077</v>
+        <v>385626.89011017</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45673</v>
+        <v>45678</v>
       </c>
       <c r="B214" t="n">
-        <v>26.69</v>
+        <v>27.11</v>
       </c>
       <c r="C214" t="n">
-        <v>137596.09225321</v>
+        <v>219950.33339601</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B215" t="n">
-        <v>28.29</v>
+        <v>26.79</v>
       </c>
       <c r="C215" t="n">
-        <v>162102.40385248</v>
+        <v>165636.85202748</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45675</v>
+        <v>45680</v>
       </c>
       <c r="B216" t="n">
-        <v>26.89</v>
+        <v>29.02</v>
       </c>
       <c r="C216" t="n">
-        <v>174892.08622077</v>
+        <v>438722.88160665</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45676</v>
+        <v>45681</v>
       </c>
       <c r="B217" t="n">
-        <v>25.4</v>
+        <v>27.34</v>
       </c>
       <c r="C217" t="n">
-        <v>316614.07909318</v>
+        <v>236401.22234266</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45677</v>
+        <v>45682</v>
       </c>
       <c r="B218" t="n">
-        <v>25.76</v>
+        <v>27.04</v>
       </c>
       <c r="C218" t="n">
-        <v>385626.89011017</v>
+        <v>101197.92015576</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45678</v>
+        <v>45683</v>
       </c>
       <c r="B219" t="n">
-        <v>27.11</v>
+        <v>26.15</v>
       </c>
       <c r="C219" t="n">
-        <v>219950.33339601</v>
+        <v>67708.94358463</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B220" t="n">
-        <v>26.79</v>
+        <v>25.98</v>
       </c>
       <c r="C220" t="n">
-        <v>165636.85202748</v>
+        <v>209781.33746963</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45680</v>
+        <v>45685</v>
       </c>
       <c r="B221" t="n">
-        <v>29.02</v>
+        <v>24.98</v>
       </c>
       <c r="C221" t="n">
-        <v>438722.88160665</v>
+        <v>110176.15690826</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45681</v>
+        <v>45686</v>
       </c>
       <c r="B222" t="n">
-        <v>27.34</v>
+        <v>25.53</v>
       </c>
       <c r="C222" t="n">
-        <v>236401.22234266</v>
+        <v>129988.65977482</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45682</v>
+        <v>45687</v>
       </c>
       <c r="B223" t="n">
-        <v>27.04</v>
+        <v>26.26</v>
       </c>
       <c r="C223" t="n">
-        <v>101197.92015576</v>
+        <v>89533.43816164001</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45683</v>
+        <v>45688</v>
       </c>
       <c r="B224" t="n">
-        <v>26.15</v>
+        <v>26.8</v>
       </c>
       <c r="C224" t="n">
-        <v>67708.94358463</v>
+        <v>248407.49726322</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45684</v>
+        <v>45689</v>
       </c>
       <c r="B225" t="n">
-        <v>25.98</v>
+        <v>24.96</v>
       </c>
       <c r="C225" t="n">
-        <v>209781.33746963</v>
+        <v>105441.00926382</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45685</v>
+        <v>45690</v>
       </c>
       <c r="B226" t="n">
-        <v>24.98</v>
+        <v>22.5</v>
       </c>
       <c r="C226" t="n">
-        <v>110176.15690826</v>
+        <v>340611.41034207</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45686</v>
+        <v>45691</v>
       </c>
       <c r="B227" t="n">
-        <v>25.53</v>
+        <v>22.08</v>
       </c>
       <c r="C227" t="n">
-        <v>129988.65977482</v>
+        <v>829694.6298868801</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45687</v>
+        <v>45692</v>
       </c>
       <c r="B228" t="n">
-        <v>26.26</v>
+        <v>20.66</v>
       </c>
       <c r="C228" t="n">
-        <v>89533.43816164001</v>
+        <v>430263.51167366</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45688</v>
+        <v>45693</v>
       </c>
       <c r="B229" t="n">
-        <v>26.8</v>
+        <v>20.7</v>
       </c>
       <c r="C229" t="n">
-        <v>248407.49726322</v>
+        <v>123633.34636884</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45689</v>
+        <v>45694</v>
       </c>
       <c r="B230" t="n">
-        <v>24.96</v>
+        <v>19.73</v>
       </c>
       <c r="C230" t="n">
-        <v>105441.00926382</v>
+        <v>135548.96628161</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45690</v>
+        <v>45695</v>
       </c>
       <c r="B231" t="n">
-        <v>22.5</v>
+        <v>19.81</v>
       </c>
       <c r="C231" t="n">
-        <v>340611.41034207</v>
+        <v>131928.9363128</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45691</v>
+        <v>45696</v>
       </c>
       <c r="B232" t="n">
-        <v>22.08</v>
+        <v>20.15</v>
       </c>
       <c r="C232" t="n">
-        <v>829694.6298868801</v>
+        <v>55769.49978459</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45692</v>
+        <v>45697</v>
       </c>
       <c r="B233" t="n">
-        <v>20.66</v>
+        <v>20.18</v>
       </c>
       <c r="C233" t="n">
-        <v>430263.51167366</v>
+        <v>65467.94916293</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="B234" t="n">
-        <v>20.7</v>
+        <v>20.69</v>
       </c>
       <c r="C234" t="n">
-        <v>123633.34636884</v>
+        <v>86373.17312645999</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B235" t="n">
-        <v>19.73</v>
+        <v>20.22</v>
       </c>
       <c r="C235" t="n">
-        <v>135548.96628161</v>
+        <v>98431.73382942</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45695</v>
+        <v>45700</v>
       </c>
       <c r="B236" t="n">
-        <v>19.81</v>
+        <v>21.39</v>
       </c>
       <c r="C236" t="n">
-        <v>131928.9363128</v>
+        <v>145715.35937966</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45696</v>
+        <v>45701</v>
       </c>
       <c r="B237" t="n">
-        <v>20.15</v>
+        <v>21.14</v>
       </c>
       <c r="C237" t="n">
-        <v>55769.49978459</v>
+        <v>91962.51217217</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45697</v>
+        <v>45702</v>
       </c>
       <c r="B238" t="n">
-        <v>20.18</v>
+        <v>21.4</v>
       </c>
       <c r="C238" t="n">
-        <v>65467.94916293</v>
+        <v>81853.84440443999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45698</v>
+        <v>45703</v>
       </c>
       <c r="B239" t="n">
-        <v>20.69</v>
+        <v>20.81</v>
       </c>
       <c r="C239" t="n">
-        <v>86373.17312645999</v>
+        <v>49743.93629362</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45699</v>
+        <v>45704</v>
       </c>
       <c r="B240" t="n">
-        <v>20.22</v>
+        <v>20.45</v>
       </c>
       <c r="C240" t="n">
-        <v>98431.73382942</v>
+        <v>24507.0731196</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45700</v>
+        <v>45705</v>
       </c>
       <c r="B241" t="n">
-        <v>21.39</v>
+        <v>20.89</v>
       </c>
       <c r="C241" t="n">
-        <v>145715.35937966</v>
+        <v>124725.30260601</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45701</v>
+        <v>45706</v>
       </c>
       <c r="B242" t="n">
-        <v>21.14</v>
+        <v>20.18</v>
       </c>
       <c r="C242" t="n">
-        <v>91962.51217217</v>
+        <v>80488.51878478999</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45702</v>
+        <v>45707</v>
       </c>
       <c r="B243" t="n">
-        <v>21.4</v>
+        <v>21.17</v>
       </c>
       <c r="C243" t="n">
-        <v>81853.84440443999</v>
+        <v>124246.63805048</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45703</v>
+        <v>45708</v>
       </c>
       <c r="B244" t="n">
-        <v>20.81</v>
+        <v>20.94</v>
       </c>
       <c r="C244" t="n">
-        <v>49743.93629362</v>
+        <v>94117.92287573</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45704</v>
+        <v>45709</v>
       </c>
       <c r="B245" t="n">
-        <v>20.45</v>
+        <v>20.19</v>
       </c>
       <c r="C245" t="n">
-        <v>24507.0731196</v>
+        <v>119498.09813842</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45705</v>
+        <v>45710</v>
       </c>
       <c r="B246" t="n">
-        <v>20.89</v>
+        <v>20.46</v>
       </c>
       <c r="C246" t="n">
-        <v>124725.30260601</v>
+        <v>81629.74496806999</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45706</v>
+        <v>45711</v>
       </c>
       <c r="B247" t="n">
-        <v>20.18</v>
+        <v>20.78</v>
       </c>
       <c r="C247" t="n">
-        <v>80488.51878478999</v>
+        <v>60376.81950013</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="B248" t="n">
-        <v>21.17</v>
+        <v>18.65</v>
       </c>
       <c r="C248" t="n">
-        <v>124246.63805048</v>
+        <v>138631.87423709</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45708</v>
+        <v>45713</v>
       </c>
       <c r="B249" t="n">
-        <v>20.94</v>
+        <v>18.87</v>
       </c>
       <c r="C249" t="n">
-        <v>94117.92287573</v>
+        <v>176195.14835306</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45709</v>
+        <v>45714</v>
       </c>
       <c r="B250" t="n">
-        <v>20.19</v>
+        <v>18.75</v>
       </c>
       <c r="C250" t="n">
-        <v>119498.09813842</v>
+        <v>90253.53590153001</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45710</v>
+        <v>45715</v>
       </c>
       <c r="B251" t="n">
-        <v>20.46</v>
+        <v>18.7</v>
       </c>
       <c r="C251" t="n">
-        <v>81629.74496806999</v>
+        <v>90355.27770036001</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45711</v>
+        <v>45716</v>
       </c>
       <c r="B252" t="n">
-        <v>20.78</v>
+        <v>19.56</v>
       </c>
       <c r="C252" t="n">
-        <v>60376.81950013</v>
+        <v>198564.63327823</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45712</v>
+        <v>45717</v>
       </c>
       <c r="B253" t="n">
-        <v>18.65</v>
+        <v>19.05</v>
       </c>
       <c r="C253" t="n">
-        <v>138631.87423709</v>
+        <v>53587.4967768</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45713</v>
+        <v>45718</v>
       </c>
       <c r="B254" t="n">
-        <v>18.87</v>
+        <v>20.99</v>
       </c>
       <c r="C254" t="n">
-        <v>176195.14835306</v>
+        <v>244512.79132994</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45714</v>
+        <v>45719</v>
       </c>
       <c r="B255" t="n">
-        <v>18.75</v>
+        <v>18.69</v>
       </c>
       <c r="C255" t="n">
-        <v>90253.53590153001</v>
+        <v>241864.14363755</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45715</v>
+        <v>45720</v>
       </c>
       <c r="B256" t="n">
-        <v>18.7</v>
+        <v>18.92</v>
       </c>
       <c r="C256" t="n">
-        <v>90355.27770036001</v>
+        <v>152699.54861376</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45716</v>
+        <v>45721</v>
       </c>
       <c r="B257" t="n">
-        <v>19.56</v>
+        <v>20.48</v>
       </c>
       <c r="C257" t="n">
-        <v>198564.63327823</v>
+        <v>155509.40213076</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45717</v>
+        <v>45722</v>
       </c>
       <c r="B258" t="n">
-        <v>19.05</v>
+        <v>19.98</v>
       </c>
       <c r="C258" t="n">
-        <v>53587.4967768</v>
+        <v>171947.69572595</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45718</v>
+        <v>45723</v>
       </c>
       <c r="B259" t="n">
-        <v>20.99</v>
+        <v>20.38</v>
       </c>
       <c r="C259" t="n">
-        <v>244512.79132994</v>
+        <v>255445.19444717</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45719</v>
+        <v>45724</v>
       </c>
       <c r="B260" t="n">
-        <v>18.69</v>
+        <v>20.22</v>
       </c>
       <c r="C260" t="n">
-        <v>241864.14363755</v>
+        <v>128976.62118124</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45720</v>
+        <v>45725</v>
       </c>
       <c r="B261" t="n">
-        <v>18.92</v>
+        <v>17.95</v>
       </c>
       <c r="C261" t="n">
-        <v>152699.54861376</v>
+        <v>202952.19426823</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45721</v>
+        <v>45726</v>
       </c>
       <c r="B262" t="n">
-        <v>20.48</v>
+        <v>16.89</v>
       </c>
       <c r="C262" t="n">
-        <v>155509.40213076</v>
+        <v>243748.65947543</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45722</v>
+        <v>45727</v>
       </c>
       <c r="B263" t="n">
-        <v>19.98</v>
+        <v>17.87</v>
       </c>
       <c r="C263" t="n">
-        <v>171947.69572595</v>
+        <v>194624.10598452</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45723</v>
+        <v>45728</v>
       </c>
       <c r="B264" t="n">
-        <v>20.38</v>
+        <v>17.98</v>
       </c>
       <c r="C264" t="n">
-        <v>255445.19444717</v>
+        <v>87263.6488347</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45724</v>
+        <v>45729</v>
       </c>
       <c r="B265" t="n">
-        <v>20.22</v>
+        <v>17.87</v>
       </c>
       <c r="C265" t="n">
-        <v>128976.62118124</v>
+        <v>79338.19818276</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45725</v>
+        <v>45730</v>
       </c>
       <c r="B266" t="n">
-        <v>17.95</v>
+        <v>18.03</v>
       </c>
       <c r="C266" t="n">
-        <v>202952.19426823</v>
+        <v>70161.10999652</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45726</v>
+        <v>45731</v>
       </c>
       <c r="B267" t="n">
-        <v>16.89</v>
+        <v>17.94</v>
       </c>
       <c r="C267" t="n">
-        <v>243748.65947543</v>
+        <v>48027.3616077</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45727</v>
+        <v>45732</v>
       </c>
       <c r="B268" t="n">
-        <v>17.87</v>
+        <v>17.48</v>
       </c>
       <c r="C268" t="n">
-        <v>194624.10598452</v>
+        <v>48993.20207421</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="B269" t="n">
-        <v>17.98</v>
+        <v>17.82</v>
       </c>
       <c r="C269" t="n">
-        <v>87263.6488347</v>
+        <v>71981.63566231</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45729</v>
+        <v>45734</v>
       </c>
       <c r="B270" t="n">
-        <v>17.87</v>
+        <v>17.7</v>
       </c>
       <c r="C270" t="n">
-        <v>79338.19818276</v>
+        <v>43152.07282617</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45730</v>
+        <v>45735</v>
       </c>
       <c r="B271" t="n">
-        <v>18.03</v>
+        <v>18.57</v>
       </c>
       <c r="C271" t="n">
-        <v>70161.10999652</v>
+        <v>162696.24902225</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="B272" t="n">
-        <v>17.94</v>
+        <v>17.89</v>
       </c>
       <c r="C272" t="n">
-        <v>48027.3616077</v>
+        <v>44718.56204191</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45732</v>
+        <v>45737</v>
       </c>
       <c r="B273" t="n">
-        <v>17.48</v>
+        <v>17.72</v>
       </c>
       <c r="C273" t="n">
-        <v>48993.20207421</v>
+        <v>50297.96722735</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45733</v>
+        <v>45738</v>
       </c>
       <c r="B274" t="n">
-        <v>17.82</v>
+        <v>17.66</v>
       </c>
       <c r="C274" t="n">
-        <v>71981.63566231</v>
+        <v>57982.5874784</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45734</v>
+        <v>45739</v>
       </c>
       <c r="B275" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="C275" t="n">
-        <v>43152.07282617</v>
+        <v>24689.98719662</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="B276" t="n">
-        <v>18.57</v>
+        <v>18.31</v>
       </c>
       <c r="C276" t="n">
-        <v>162696.24902225</v>
+        <v>62489.75877322</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="B277" t="n">
-        <v>17.89</v>
+        <v>18.42</v>
       </c>
       <c r="C277" t="n">
-        <v>44718.56204191</v>
+        <v>43580.30572152</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45737</v>
+        <v>45742</v>
       </c>
       <c r="B278" t="n">
-        <v>17.72</v>
+        <v>18</v>
       </c>
       <c r="C278" t="n">
-        <v>50297.96722735</v>
+        <v>46986.93986015</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45738</v>
+        <v>45743</v>
       </c>
       <c r="B279" t="n">
-        <v>17.66</v>
+        <v>17.8</v>
       </c>
       <c r="C279" t="n">
-        <v>57982.5874784</v>
+        <v>2473.00700952</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45739</v>
+        <v>45744</v>
       </c>
       <c r="B280" t="n">
-        <v>17.8</v>
+        <v>17.14</v>
       </c>
       <c r="C280" t="n">
-        <v>24689.98719662</v>
+        <v>82818.33509809</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45740</v>
+        <v>45745</v>
       </c>
       <c r="B281" t="n">
-        <v>18.31</v>
+        <v>16.6</v>
       </c>
       <c r="C281" t="n">
-        <v>62489.75877322</v>
+        <v>54305.2734647</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45741</v>
+        <v>45746</v>
       </c>
       <c r="B282" t="n">
-        <v>18.42</v>
+        <v>16.52</v>
       </c>
       <c r="C282" t="n">
-        <v>43580.30572152</v>
+        <v>42038.3847098</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45742</v>
+        <v>45747</v>
       </c>
       <c r="B283" t="n">
-        <v>18</v>
+        <v>16.77</v>
       </c>
       <c r="C283" t="n">
-        <v>46986.93986015</v>
+        <v>83008.23463628</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="B284" t="n">
-        <v>17.8</v>
+        <v>16.9</v>
       </c>
       <c r="C284" t="n">
-        <v>2473.00700952</v>
+        <v>53838.6609193</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45744</v>
+        <v>45749</v>
       </c>
       <c r="B285" t="n">
-        <v>17.14</v>
+        <v>16.08</v>
       </c>
       <c r="C285" t="n">
-        <v>82818.33509809</v>
+        <v>274632.87297279</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45745</v>
+        <v>45750</v>
       </c>
       <c r="B286" t="n">
-        <v>16.6</v>
+        <v>16.23</v>
       </c>
       <c r="C286" t="n">
-        <v>54305.2734647</v>
+        <v>168849.59133831</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45746</v>
+        <v>45751</v>
       </c>
       <c r="B287" t="n">
-        <v>16.52</v>
+        <v>16.23</v>
       </c>
       <c r="C287" t="n">
-        <v>42038.3847098</v>
+        <v>93293.9370487</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45747</v>
+        <v>45752</v>
       </c>
       <c r="B288" t="n">
-        <v>16.77</v>
+        <v>15.85</v>
       </c>
       <c r="C288" t="n">
-        <v>83008.23463628</v>
+        <v>36672.65446627</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45748</v>
+        <v>45753</v>
       </c>
       <c r="B289" t="n">
-        <v>16.9</v>
+        <v>14.13</v>
       </c>
       <c r="C289" t="n">
-        <v>53838.6609193</v>
+        <v>251404.32132472</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45749</v>
+        <v>45754</v>
       </c>
       <c r="B290" t="n">
-        <v>16.08</v>
+        <v>14.49</v>
       </c>
       <c r="C290" t="n">
-        <v>274632.87297279</v>
+        <v>347128.20209287</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="B291" t="n">
-        <v>16.23</v>
+        <v>14.06</v>
       </c>
       <c r="C291" t="n">
-        <v>168849.59133831</v>
+        <v>109904.77762035</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45751</v>
+        <v>45756</v>
       </c>
       <c r="B292" t="n">
-        <v>16.23</v>
+        <v>15.3</v>
       </c>
       <c r="C292" t="n">
-        <v>93293.9370487</v>
+        <v>170969.6219655</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45752</v>
+        <v>45757</v>
       </c>
       <c r="B293" t="n">
-        <v>15.85</v>
+        <v>14.79</v>
       </c>
       <c r="C293" t="n">
-        <v>36672.65446627</v>
+        <v>110462.5243236</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45753</v>
+        <v>45758</v>
       </c>
       <c r="B294" t="n">
-        <v>14.13</v>
+        <v>15.17</v>
       </c>
       <c r="C294" t="n">
-        <v>251404.32132472</v>
+        <v>69728.63075811999</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45754</v>
+        <v>45759</v>
       </c>
       <c r="B295" t="n">
-        <v>14.49</v>
+        <v>15.55</v>
       </c>
       <c r="C295" t="n">
-        <v>347128.20209287</v>
+        <v>94203.22976182</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45755</v>
+        <v>45760</v>
       </c>
       <c r="B296" t="n">
-        <v>14.06</v>
+        <v>15.22</v>
       </c>
       <c r="C296" t="n">
-        <v>109904.77762035</v>
+        <v>131398.61606497</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45756</v>
+        <v>45761</v>
       </c>
       <c r="B297" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C297" t="n">
-        <v>170969.6219655</v>
+        <v>141276.14507097</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45757</v>
+        <v>45762</v>
       </c>
       <c r="B298" t="n">
-        <v>14.79</v>
+        <v>14.83</v>
       </c>
       <c r="C298" t="n">
-        <v>110462.5243236</v>
+        <v>90261.16050483999</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45758</v>
+        <v>45763</v>
       </c>
       <c r="B299" t="n">
-        <v>15.17</v>
+        <v>14.85</v>
       </c>
       <c r="C299" t="n">
-        <v>69728.63075811999</v>
+        <v>81430.64628011</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45759</v>
+        <v>45764</v>
       </c>
       <c r="B300" t="n">
-        <v>15.55</v>
+        <v>15.11</v>
       </c>
       <c r="C300" t="n">
-        <v>94203.22976182</v>
+        <v>81901.0970539</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45760</v>
+        <v>45765</v>
       </c>
       <c r="B301" t="n">
-        <v>15.22</v>
+        <v>15.44</v>
       </c>
       <c r="C301" t="n">
-        <v>131398.61606497</v>
+        <v>53030.58857407</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45761</v>
+        <v>45766</v>
       </c>
       <c r="B302" t="n">
-        <v>15.2</v>
+        <v>15.95</v>
       </c>
       <c r="C302" t="n">
-        <v>141276.14507097</v>
+        <v>65829.10486475</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45762</v>
+        <v>45767</v>
       </c>
       <c r="B303" t="n">
-        <v>14.83</v>
+        <v>16.05</v>
       </c>
       <c r="C303" t="n">
-        <v>90261.16050483999</v>
+        <v>56214.99503716</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45763</v>
+        <v>45768</v>
       </c>
       <c r="B304" t="n">
-        <v>14.85</v>
+        <v>15.62</v>
       </c>
       <c r="C304" t="n">
-        <v>81430.64628011</v>
+        <v>79583.50584685001</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B305" t="n">
-        <v>15.11</v>
+        <v>16.67</v>
       </c>
       <c r="C305" t="n">
-        <v>81901.0970539</v>
+        <v>116765.08374698</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45765</v>
+        <v>45770</v>
       </c>
       <c r="B306" t="n">
-        <v>15.44</v>
+        <v>16.78</v>
       </c>
       <c r="C306" t="n">
-        <v>53030.58857407</v>
+        <v>156257.51656653</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45766</v>
+        <v>45771</v>
       </c>
       <c r="B307" t="n">
-        <v>15.95</v>
+        <v>16.75</v>
       </c>
       <c r="C307" t="n">
-        <v>65829.10486475</v>
+        <v>89703.01775421</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45767</v>
+        <v>45772</v>
       </c>
       <c r="B308" t="n">
-        <v>16.05</v>
+        <v>17.25</v>
       </c>
       <c r="C308" t="n">
-        <v>56214.99503716</v>
+        <v>110563.46532117</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45768</v>
+        <v>45773</v>
       </c>
       <c r="B309" t="n">
-        <v>15.62</v>
+        <v>17.06</v>
       </c>
       <c r="C309" t="n">
-        <v>79583.50584685001</v>
+        <v>76502.15695134</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45769</v>
+        <v>45774</v>
       </c>
       <c r="B310" t="n">
-        <v>16.67</v>
+        <v>16.59</v>
       </c>
       <c r="C310" t="n">
-        <v>116765.08374698</v>
+        <v>116546.28154366</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45770</v>
+        <v>45775</v>
       </c>
       <c r="B311" t="n">
-        <v>16.78</v>
+        <v>17</v>
       </c>
       <c r="C311" t="n">
-        <v>156257.51656653</v>
+        <v>96027.04656056</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="B312" t="n">
-        <v>16.75</v>
+        <v>16.72</v>
       </c>
       <c r="C312" t="n">
-        <v>89703.01775421</v>
+        <v>195040.74656998</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45772</v>
+        <v>45777</v>
       </c>
       <c r="B313" t="n">
-        <v>17.25</v>
+        <v>16.53</v>
       </c>
       <c r="C313" t="n">
-        <v>110563.46532117</v>
+        <v>113900.8675589</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45773</v>
+        <v>45778</v>
       </c>
       <c r="B314" t="n">
-        <v>17.06</v>
+        <v>16.92</v>
       </c>
       <c r="C314" t="n">
-        <v>76502.15695134</v>
+        <v>64052.66025401</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45774</v>
+        <v>45779</v>
       </c>
       <c r="B315" t="n">
-        <v>16.59</v>
+        <v>17.22</v>
       </c>
       <c r="C315" t="n">
-        <v>116546.28154366</v>
+        <v>79621.24550788999</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45775</v>
+        <v>45780</v>
       </c>
       <c r="B316" t="n">
-        <v>17</v>
+        <v>16.57</v>
       </c>
       <c r="C316" t="n">
-        <v>96027.04656056</v>
+        <v>87369.25544434</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45776</v>
+        <v>45781</v>
       </c>
       <c r="B317" t="n">
-        <v>16.72</v>
+        <v>16.02</v>
       </c>
       <c r="C317" t="n">
-        <v>195040.74656998</v>
+        <v>114646.70612983</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45777</v>
+        <v>45782</v>
       </c>
       <c r="B318" t="n">
-        <v>16.53</v>
+        <v>16.01</v>
       </c>
       <c r="C318" t="n">
-        <v>113900.8675589</v>
+        <v>77750.85942079</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45778</v>
+        <v>45783</v>
       </c>
       <c r="B319" t="n">
-        <v>16.92</v>
+        <v>16.23</v>
       </c>
       <c r="C319" t="n">
-        <v>64052.66025401</v>
+        <v>83489.09635691</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45779</v>
+        <v>45784</v>
       </c>
       <c r="B320" t="n">
-        <v>17.22</v>
+        <v>16.2</v>
       </c>
       <c r="C320" t="n">
-        <v>79621.24550788999</v>
+        <v>99598.62355216</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45780</v>
+        <v>45785</v>
       </c>
       <c r="B321" t="n">
-        <v>16.57</v>
+        <v>18.61</v>
       </c>
       <c r="C321" t="n">
-        <v>87369.25544434</v>
+        <v>246824.92706797</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45781</v>
+        <v>45786</v>
       </c>
       <c r="B322" t="n">
-        <v>16.02</v>
+        <v>19.21</v>
       </c>
       <c r="C322" t="n">
-        <v>114646.70612983</v>
+        <v>200756.81560702</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45782</v>
+        <v>45787</v>
       </c>
       <c r="B323" t="n">
-        <v>16.01</v>
+        <v>20.7</v>
       </c>
       <c r="C323" t="n">
-        <v>77750.85942079</v>
+        <v>195157.54732052</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45783</v>
+        <v>45788</v>
       </c>
       <c r="B324" t="n">
-        <v>16.23</v>
+        <v>19.95</v>
       </c>
       <c r="C324" t="n">
-        <v>83489.09635691</v>
+        <v>206019.94657002</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45784</v>
+        <v>45789</v>
       </c>
       <c r="B325" t="n">
-        <v>16.2</v>
+        <v>19.78</v>
       </c>
       <c r="C325" t="n">
-        <v>99598.62355216</v>
+        <v>180755.7340654</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45785</v>
+        <v>45790</v>
       </c>
       <c r="B326" t="n">
-        <v>18.61</v>
+        <v>20.67</v>
       </c>
       <c r="C326" t="n">
-        <v>246824.92706797</v>
+        <v>146458.04734883</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45786</v>
+        <v>45791</v>
       </c>
       <c r="B327" t="n">
-        <v>19.21</v>
+        <v>19.88</v>
       </c>
       <c r="C327" t="n">
-        <v>200756.81560702</v>
+        <v>102806.08509504</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45787</v>
+        <v>45792</v>
       </c>
       <c r="B328" t="n">
-        <v>20.7</v>
+        <v>18.96</v>
       </c>
       <c r="C328" t="n">
-        <v>195157.54732052</v>
+        <v>107742.66762038</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45788</v>
+        <v>45793</v>
       </c>
       <c r="B329" t="n">
-        <v>19.95</v>
+        <v>18.7</v>
       </c>
       <c r="C329" t="n">
-        <v>206019.94657002</v>
+        <v>119434.95457548</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45789</v>
+        <v>45794</v>
       </c>
       <c r="B330" t="n">
-        <v>19.78</v>
+        <v>18.15</v>
       </c>
       <c r="C330" t="n">
-        <v>180755.7340654</v>
+        <v>93638.34347584999</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45790</v>
+        <v>45795</v>
       </c>
       <c r="B331" t="n">
-        <v>20.67</v>
+        <v>18.72</v>
       </c>
       <c r="C331" t="n">
-        <v>146458.04734883</v>
+        <v>104315.71438512</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45791</v>
+        <v>45796</v>
       </c>
       <c r="B332" t="n">
-        <v>19.88</v>
+        <v>18.53</v>
       </c>
       <c r="C332" t="n">
-        <v>102806.08509504</v>
+        <v>146306.26237027</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45792</v>
+        <v>45797</v>
       </c>
       <c r="B333" t="n">
-        <v>18.96</v>
+        <v>18.41</v>
       </c>
       <c r="C333" t="n">
-        <v>107742.66762038</v>
+        <v>88757.51525750999</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45793</v>
+        <v>45798</v>
       </c>
       <c r="B334" t="n">
-        <v>18.7</v>
+        <v>19.01</v>
       </c>
       <c r="C334" t="n">
-        <v>119434.95457548</v>
+        <v>133432.03941992</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45794</v>
+        <v>45799</v>
       </c>
       <c r="B335" t="n">
-        <v>18.15</v>
+        <v>19.67</v>
       </c>
       <c r="C335" t="n">
-        <v>93638.34347584999</v>
+        <v>88489.15952890999</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45795</v>
+        <v>45800</v>
       </c>
       <c r="B336" t="n">
-        <v>18.72</v>
+        <v>18.47</v>
       </c>
       <c r="C336" t="n">
-        <v>104315.71438512</v>
+        <v>116125.02564361</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="B337" t="n">
-        <v>18.53</v>
+        <v>18.4</v>
       </c>
       <c r="C337" t="n">
-        <v>146306.26237027</v>
+        <v>37265.1898861</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45797</v>
+        <v>45802</v>
       </c>
       <c r="B338" t="n">
-        <v>18.41</v>
+        <v>18.36</v>
       </c>
       <c r="C338" t="n">
-        <v>88757.51525750999</v>
+        <v>49681.71780443</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45798</v>
+        <v>45803</v>
       </c>
       <c r="B339" t="n">
-        <v>19.01</v>
+        <v>18.25</v>
       </c>
       <c r="C339" t="n">
-        <v>133432.03941992</v>
+        <v>37998.41273004</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="B340" t="n">
-        <v>19.67</v>
+        <v>18.63</v>
       </c>
       <c r="C340" t="n">
-        <v>88489.15952890999</v>
+        <v>49034.39441119</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45800</v>
+        <v>45805</v>
       </c>
       <c r="B341" t="n">
-        <v>18.47</v>
+        <v>18.49</v>
       </c>
       <c r="C341" t="n">
-        <v>116125.02564361</v>
+        <v>49016.03204652</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45801</v>
+        <v>45806</v>
       </c>
       <c r="B342" t="n">
-        <v>18.4</v>
+        <v>18.13</v>
       </c>
       <c r="C342" t="n">
-        <v>37265.1898861</v>
+        <v>60556.31543561</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45802</v>
+        <v>45807</v>
       </c>
       <c r="B343" t="n">
-        <v>18.36</v>
+        <v>16.97</v>
       </c>
       <c r="C343" t="n">
-        <v>49681.71780443</v>
+        <v>71089.83008234001</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45803</v>
+        <v>45808</v>
       </c>
       <c r="B344" t="n">
-        <v>18.25</v>
+        <v>16.94</v>
       </c>
       <c r="C344" t="n">
-        <v>37998.41273004</v>
+        <v>80523.81279321</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45804</v>
+        <v>45809</v>
       </c>
       <c r="B345" t="n">
-        <v>18.63</v>
+        <v>17.11</v>
       </c>
       <c r="C345" t="n">
-        <v>49034.39441119</v>
+        <v>52082.17030217</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45805</v>
+        <v>45810</v>
       </c>
       <c r="B346" t="n">
-        <v>18.49</v>
+        <v>17.56</v>
       </c>
       <c r="C346" t="n">
-        <v>49016.03204652</v>
+        <v>42915.64355032</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="B347" t="n">
-        <v>18.13</v>
+        <v>17.57</v>
       </c>
       <c r="C347" t="n">
-        <v>60556.31543561</v>
+        <v>37830.11299423</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B348" t="n">
-        <v>16.97</v>
+        <v>17.26</v>
       </c>
       <c r="C348" t="n">
-        <v>71089.83008234001</v>
+        <v>37080.57812533</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45808</v>
+        <v>45813</v>
       </c>
       <c r="B349" t="n">
-        <v>16.94</v>
+        <v>16.31</v>
       </c>
       <c r="C349" t="n">
-        <v>80523.81279321</v>
+        <v>49895.04014665</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45809</v>
+        <v>45814</v>
       </c>
       <c r="B350" t="n">
-        <v>17.11</v>
+        <v>16.73</v>
       </c>
       <c r="C350" t="n">
-        <v>52082.17030217</v>
+        <v>38869.00564959</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45810</v>
+        <v>45815</v>
       </c>
       <c r="B351" t="n">
-        <v>17.56</v>
+        <v>17.22</v>
       </c>
       <c r="C351" t="n">
-        <v>42915.64355032</v>
+        <v>21362.53719605</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45811</v>
+        <v>45816</v>
       </c>
       <c r="B352" t="n">
-        <v>17.57</v>
+        <v>16.93</v>
       </c>
       <c r="C352" t="n">
-        <v>37830.11299423</v>
+        <v>25978.36097441</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B353" t="n">
-        <v>17.26</v>
+        <v>17.87</v>
       </c>
       <c r="C353" t="n">
-        <v>37080.57812533</v>
+        <v>33094.17124279</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B354" t="n">
-        <v>16.31</v>
+        <v>18.54</v>
       </c>
       <c r="C354" t="n">
-        <v>49895.04014665</v>
+        <v>53456.75150533</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45814</v>
+        <v>45819</v>
       </c>
       <c r="B355" t="n">
-        <v>16.73</v>
+        <v>18.08</v>
       </c>
       <c r="C355" t="n">
-        <v>38869.00564959</v>
+        <v>46486.08485473</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45815</v>
+        <v>45820</v>
       </c>
       <c r="B356" t="n">
-        <v>17.22</v>
+        <v>17.11</v>
       </c>
       <c r="C356" t="n">
-        <v>21362.53719605</v>
+        <v>44087.28754561</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45816</v>
+        <v>45821</v>
       </c>
       <c r="B357" t="n">
-        <v>16.93</v>
+        <v>16.92</v>
       </c>
       <c r="C357" t="n">
-        <v>25978.36097441</v>
+        <v>76700.31706575</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45817</v>
+        <v>45822</v>
       </c>
       <c r="B358" t="n">
-        <v>17.87</v>
+        <v>16.63</v>
       </c>
       <c r="C358" t="n">
-        <v>33094.17124279</v>
+        <v>15299.80232647</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45818</v>
+        <v>45823</v>
       </c>
       <c r="B359" t="n">
-        <v>18.54</v>
+        <v>16.67</v>
       </c>
       <c r="C359" t="n">
-        <v>53456.75150533</v>
+        <v>9996.606129739999</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45819</v>
+        <v>45824</v>
       </c>
       <c r="B360" t="n">
-        <v>18.08</v>
+        <v>16.93</v>
       </c>
       <c r="C360" t="n">
-        <v>46486.08485473</v>
+        <v>31612.74717704</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45820</v>
+        <v>45825</v>
       </c>
       <c r="B361" t="n">
-        <v>17.11</v>
+        <v>16.48</v>
       </c>
       <c r="C361" t="n">
-        <v>44087.28754561</v>
+        <v>26498.80451989</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45821</v>
+        <v>45826</v>
       </c>
       <c r="B362" t="n">
-        <v>16.92</v>
+        <v>16.55</v>
       </c>
       <c r="C362" t="n">
-        <v>76700.31706575</v>
+        <v>29455.97037678</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45822</v>
+        <v>45827</v>
       </c>
       <c r="B363" t="n">
-        <v>16.63</v>
+        <v>16.74</v>
       </c>
       <c r="C363" t="n">
-        <v>15299.80232647</v>
+        <v>22095.91652911</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45823</v>
+        <v>45828</v>
       </c>
       <c r="B364" t="n">
-        <v>16.67</v>
+        <v>16.11</v>
       </c>
       <c r="C364" t="n">
-        <v>9996.606129739999</v>
+        <v>30809.27646535</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45824</v>
+        <v>45829</v>
       </c>
       <c r="B365" t="n">
-        <v>16.93</v>
+        <v>15.6</v>
       </c>
       <c r="C365" t="n">
-        <v>31612.74717704</v>
+        <v>30949.60424746</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45825</v>
+        <v>45830</v>
       </c>
       <c r="B366" t="n">
-        <v>16.98</v>
+        <v>15.51</v>
       </c>
       <c r="C366" t="n">
-        <v>4683.02532043</v>
+        <v>5324.67274993</v>
       </c>
     </row>
   </sheetData>
